--- a/log/16_11_2021.xlsx
+++ b/log/16_11_2021.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5760" yWindow="3204" windowWidth="17280" windowHeight="9036" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NHAT KY NGAY" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -414,11 +415,11 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -505,12 +506,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>161120210329240982123390</t>
+          <t>141120211157080978903579</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HỒ PHƯỚC CƯỜNG</t>
+          <t>Nguyễn Tiến Thành</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -525,22 +526,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>048063000402</t>
+          <t>201750611</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0982123390</t>
+          <t>0978903579</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>92/33 Đinh Tiên Hoàng,</t>
+          <t>65 Hồ Sĩ Dương, phường Hòa Thọ Đông quận Cẩm Lệ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>92/33 Đinh Tiên Hoàng phường Tam Thuận quận Thanh Khê thành phố Đà Nẵng</t>
+          <t>65 Hồ Sĩ Dương phường Hòa Thọ Đông quận Cẩm Lệ thành phố Đà Nẵng</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -553,7 +554,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11/16/2021, 10:29:09 AM</t>
+          <t>11/16/2021, 6:49:18 PM</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -573,7 +574,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>CHƯA ĐĂNG KÍ</t>
+          <t>ĐÃ ĐĂNG KÍ</t>
         </is>
       </c>
     </row>
